--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\anything\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\anything\MorningCall\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>群中备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,22 @@
   </si>
   <si>
     <t>电话：18031629866</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiga</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18933947315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无名氏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18568128870</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -470,108 +486,130 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.2638888888888889</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
-        <v>0.28472222222222221</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.30555555555555552</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>0.3125</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B11" s="1">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B12" s="1">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C9">
-    <sortState ref="A2:C10">
+    <sortState ref="A2:C12">
       <sortCondition ref="B1:B9"/>
     </sortState>
   </autoFilter>

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\anything\MorningCall\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\MorningCall\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>群中备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电话：17398385506</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,18 +114,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无名氏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电话：18568128870</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-黄瀚迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做完舒力和力学教程就改名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18583503495</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-创-章斯佳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -462,20 +470,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="23.19921875" customWidth="1"/>
     <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,125 +494,136 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>0.25694444444444448</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
         <v>0.26041666666666669</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>0.2673611111111111</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.28472222222222221</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
         <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.30555555555555552</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1">
         <v>0.3125</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
         <v>2</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>17</v>
       </c>
       <c r="B12" s="1">
         <v>0.33333333333333331</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>群中备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,65 +72,68 @@
     <t>啊哈灵机一动</t>
   </si>
   <si>
+    <t>neko</t>
+  </si>
+  <si>
+    <t>电话：18660068326</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影子</t>
+  </si>
+  <si>
+    <t>电话：17326241046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岐照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：17756512789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哞同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18031629866</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiga</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18933947315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18568128870</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-黄瀚迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做完舒力和力学教程就改名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18583503495</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-创-章斯佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>电话：15656028601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>neko</t>
-  </si>
-  <si>
-    <t>电话：18660068326</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影子</t>
-  </si>
-  <si>
-    <t>电话：17326241046</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岐照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：17756512789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哞同学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18031629866</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shiga</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18933947315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18568128870</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18-黄瀚迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做完舒力和力学教程就改名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18583503495</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17-创-章斯佳</t>
+  </si>
+  <si>
+    <t>QQ电话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -481,9 +484,10 @@
     <col min="1" max="1" width="23.19921875" customWidth="1"/>
     <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="23.1484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -505,9 +509,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1">
         <v>0.26041666666666669</v>
@@ -516,51 +520,54 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1">
         <v>0.2673611111111111</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1">
         <v>0.27777777777777779</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>0.28472222222222221</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -571,40 +578,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>0.29166666666666669</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>0.2986111111111111</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1">
         <v>0.3125</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -615,23 +622,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>0.33333333333333331</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C9">
-    <sortState ref="A2:C12">
-      <sortCondition ref="B1:B9"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -476,7 +476,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -498,18 +498,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>0.25694444444444448</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -520,7 +520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -531,7 +531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -550,7 +550,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="1">
-        <v>0.27777777777777779</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -561,13 +561,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.28472222222222221</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -600,7 +600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -611,7 +611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -622,7 +622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\MorningCall\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\anything\MorningCall\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$24:$C$38</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>群中备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,13 +134,73 @@
   </si>
   <si>
     <t>QQ电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺大仙儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：13317736251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋逸笛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：19956093748</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨玉墨玉墨玉也</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：15161920510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>macaroni-fields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18207166169</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜雨声烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18509540243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼此</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：17607068413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日寻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18093557696</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -473,21 +533,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.19921875" customWidth="1"/>
+    <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="23.1484375" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,29 +558,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>0.2638888888888889</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.26041666666666669</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -531,110 +591,359 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1">
-        <v>0.28472222222222221</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.28125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.28125</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.28125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="G26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.27430555555555552</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.27916666666666667</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.28125</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B33" s="1">
         <v>0.28472222222222221</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.2986111111111111</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="1">
         <v>0.3125</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B38" s="1">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A24:C38"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -533,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -726,7 +726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -737,7 +737,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -748,7 +748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -759,7 +759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -770,7 +770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -781,7 +781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -792,7 +792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -802,148 +802,144 @@
       <c r="C25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
+      <c r="D25" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="1">
+      <c r="E25" s="1">
         <v>0.2673611111111111</v>
       </c>
-      <c r="G26" t="s">
+      <c r="F25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E27" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="1">
+      <c r="E27" s="1">
         <v>0.27430555555555552</v>
       </c>
-      <c r="G27" t="s">
+      <c r="F27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.28125</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="1">
+      <c r="E28" s="1">
         <v>0.27916666666666667</v>
       </c>
-      <c r="G28" t="s">
+      <c r="F28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1">
-        <v>0.27777777777777779</v>
+        <v>0.28472222222222221</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="1">
+      <c r="E29" s="1">
         <v>0.28333333333333333</v>
       </c>
-      <c r="G29" t="s">
+      <c r="F29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E30" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="1">
+      <c r="E30" s="1">
         <v>0.29166666666666669</v>
       </c>
-      <c r="G30" t="s">
+      <c r="F30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1">
-        <v>0.28125</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0.28472222222222221</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="1">
         <v>0.29722222222222222</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0.3125</v>
-      </c>
-      <c r="C37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B32" s="1">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C32" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A24:C38"/>
+  <autoFilter ref="A24:C38">
+    <sortState ref="A25:C38">
+      <sortCondition ref="B24:B38"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$24:$C$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$27:$C$38</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>群中备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,131 +69,132 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>neko</t>
+  </si>
+  <si>
+    <t>电话：18660068326</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影子</t>
+  </si>
+  <si>
+    <t>电话：17326241046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岐照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：17756512789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哞同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18031629866</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiga</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18933947315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18568128870</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-黄瀚迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做完舒力和力学教程就改名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18583503495</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-创-章斯佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：15656028601</t>
+  </si>
+  <si>
+    <t>QQ电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺大仙儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：13317736251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋逸笛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：19956093748</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨玉墨玉墨玉也</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：15161920510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>macaroni-fields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18207166169</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜雨声烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18509540243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼此</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：17607068413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日寻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18093557696</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>啊哈灵机一动</t>
-  </si>
-  <si>
-    <t>neko</t>
-  </si>
-  <si>
-    <t>电话：18660068326</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影子</t>
-  </si>
-  <si>
-    <t>电话：17326241046</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岐照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：17756512789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哞同学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18031629866</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shiga</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18933947315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18568128870</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18-黄瀚迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做完舒力和力学教程就改名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18583503495</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17-创-章斯佳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：15656028601</t>
-  </si>
-  <si>
-    <t>QQ电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贺大仙儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：13317736251</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秋逸笛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：19956093748</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墨玉墨玉墨玉也</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：15161920510</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>macaroni-fields</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18207166169</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜雨声烦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18509540243</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彼此</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：17607068413</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日寻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18093557696</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -560,7 +561,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1">
         <v>0.26041666666666669</v>
@@ -574,7 +575,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.27430555555555552</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -582,126 +583,126 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>0.2673611111111111</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1">
         <v>0.27777777777777779</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>0.28125</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1">
-        <v>0.28125</v>
+        <v>0.28472222222222221</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1">
-        <v>0.28125</v>
+        <v>0.28819444444444448</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1">
-        <v>0.28472222222222221</v>
+        <v>0.28125</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C13" t="s">
         <v>13</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.28472222222222221</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>0.29166666666666669</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -717,49 +718,49 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1">
         <v>0.29166666666666669</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1">
         <v>0.29166666666666669</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1">
         <v>0.3125</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1">
         <v>0.3125</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -770,176 +771,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1">
         <v>0.33333333333333331</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="F25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.27430555555555552</v>
-      </c>
-      <c r="F27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.28125</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.27916666666666667</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0.28472222222222221</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.28333333333333333</v>
-      </c>
-      <c r="F29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0.29722222222222222</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A24:C38">
-    <sortState ref="A25:C38">
-      <sortCondition ref="B24:B38"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$27:$C$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$28:$C$38</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>群中备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>彼此</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电话：17607068413</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,6 +191,14 @@
   </si>
   <si>
     <t>啊哈灵机一动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18258602038</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -244,7 +248,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -253,6 +257,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D26" sqref="D25:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -605,24 +612,24 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.27430555555555552</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>37</v>
+      <c r="A7" s="3">
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -660,27 +667,27 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1">
         <v>0.28819444444444448</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1">
-        <v>0.28125</v>
-      </c>
-      <c r="C12" s="2" t="s">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -782,6 +789,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E25" s="1"/>
     </row>
@@ -798,6 +816,7 @@
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
       <c r="E30" s="1"/>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$28:$C$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$26:$C$33</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -37,168 +37,168 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>MorningCall方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18767965746</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柚生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18010807497</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：17398385506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18物院阮乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：15014461880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neko</t>
+  </si>
+  <si>
+    <t>电话：18660068326</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影子</t>
+  </si>
+  <si>
+    <t>电话：17326241046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岐照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：17756512789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哞同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18031629866</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiga</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18933947315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18568128870</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-黄瀚迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做完舒力和力学教程就改名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18583503495</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-创-章斯佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：15656028601</t>
+  </si>
+  <si>
+    <t>QQ电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺大仙儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：13317736251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋逸笛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：19956093748</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨玉墨玉墨玉也</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：15161920510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>macaroni-fields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18207166169</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜雨声烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18509540243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：17607068413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日寻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18093557696</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊哈灵机一动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18258602038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>假装在科大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MorningCall方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18767965746</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柚生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18010807497</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：17398385506</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18物院阮乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：15014461880</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>neko</t>
-  </si>
-  <si>
-    <t>电话：18660068326</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影子</t>
-  </si>
-  <si>
-    <t>电话：17326241046</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岐照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：17756512789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哞同学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18031629866</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shiga</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18933947315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18568128870</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18-黄瀚迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做完舒力和力学教程就改名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18583503495</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17-创-章斯佳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：15656028601</t>
-  </si>
-  <si>
-    <t>QQ电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贺大仙儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：13317736251</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秋逸笛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：19956093748</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墨玉墨玉墨玉也</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：15161920510</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>macaroni-fields</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18207166169</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜雨声烦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18509540243</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：17607068413</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日寻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18093557696</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啊哈灵机一动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18258602038</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D26" sqref="D25:D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -563,62 +563,62 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>0.26041666666666669</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>0.27430555555555552</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.28125</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1">
         <v>0.27430555555555552</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -629,175 +629,175 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>0.27777777777777779</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>0.28125</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1">
         <v>0.28472222222222221</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1">
         <v>0.28819444444444448</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1">
         <v>0.28472222222222221</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.29166666666666669</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1">
         <v>0.29166666666666669</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1">
         <v>0.29166666666666669</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1">
         <v>0.29166666666666669</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>0.3125</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1">
         <v>0.3125</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1">
         <v>0.33333333333333331</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1">
         <v>0.33333333333333331</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1">
         <v>0.29166666666666669</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -816,8 +816,10 @@
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
       <c r="E30" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="2"/>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" s="2"/>

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\anything\MorningCall\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\MorningCall\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$26:$C$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$24:$C$32</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -543,19 +543,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="4" max="4" width="23.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -577,7 +577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -588,18 +588,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1">
-        <v>0.28125</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -610,7 +610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -621,7 +621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>17</v>
       </c>
@@ -632,7 +632,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -643,7 +643,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -654,7 +654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -665,7 +665,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -676,7 +676,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -690,7 +690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -701,18 +701,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1">
-        <v>0.28819444444444448</v>
+        <v>0.28472222222222221</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -723,7 +723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -734,7 +734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -745,7 +745,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -756,7 +756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -767,7 +767,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -778,7 +778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -789,7 +789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -800,28 +800,29 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A27" s="3"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="E30" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C32" s="2"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C37" s="2"/>
     </row>
   </sheetData>

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$24:$C$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$25:$C$34</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>做完舒力和力学教程就改名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电话：18583503495</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,6 +195,10 @@
   </si>
   <si>
     <t>假装在科大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一元二次方程组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -568,7 +568,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1">
         <v>0.26041666666666669</v>
@@ -612,13 +612,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1">
         <v>0.27430555555555552</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.5">
@@ -629,18 +629,18 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1">
         <v>0.27777777777777779</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.5">
@@ -656,38 +656,38 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1">
         <v>0.28472222222222221</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1">
         <v>0.28819444444444448</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1">
-        <v>0.28472222222222221</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.5">
@@ -725,51 +725,51 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1">
         <v>0.29166666666666669</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
         <v>0.29166666666666669</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.3125</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1">
         <v>0.3125</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1">
         <v>0.33333333333333331</v>
@@ -791,13 +791,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1">
         <v>0.29166666666666669</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.5">
@@ -807,23 +807,20 @@
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A27" s="3"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A28" s="3"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="C31" s="2"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C37" s="2"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.5">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.5">
+      <c r="C35" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\MorningCall\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\anything\MorningCall\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$25:$C$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$25:$C$30</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -543,19 +543,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="23.09765625" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -577,7 +577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -588,7 +588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -599,7 +599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -610,7 +610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -621,7 +621,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>17</v>
       </c>
@@ -632,7 +632,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -643,7 +643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -654,7 +654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -665,7 +665,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -676,12 +676,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1">
-        <v>0.27777777777777779</v>
+        <v>0.28125</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -690,7 +690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -712,7 +712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -723,7 +723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -734,7 +734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -745,18 +745,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="1">
-        <v>0.35416666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -767,7 +767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -778,7 +778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -789,7 +789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -800,26 +800,31 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A28" s="3"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E28" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C32" s="2"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="2"/>
     </row>
   </sheetData>

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\anything\MorningCall\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\MorningCall\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$25:$C$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$25:$D$30</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -543,19 +543,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="4" max="4" width="23.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -577,7 +577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -588,7 +588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -599,7 +599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -610,7 +610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -621,7 +621,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>17</v>
       </c>
@@ -632,7 +632,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -643,7 +643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -654,7 +654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -665,7 +665,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -676,7 +676,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -690,7 +690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -712,7 +712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -723,7 +723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -734,7 +734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -745,18 +745,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="1">
-        <v>0.3125</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -767,7 +767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -778,7 +778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -789,7 +789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -800,34 +800,37 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C28" s="2"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C30" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="C32" s="2"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C35" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A25:D30">
+    <sortState ref="A26:D30">
+      <sortCondition ref="B25:B30"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$25:$D$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$26:$C$32</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -681,7 +681,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="1">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -750,7 +750,7 @@
         <v>43</v>
       </c>
       <c r="B18" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.28125</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>21</v>
@@ -810,14 +810,13 @@
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="C28" s="2"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="C29" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="C32" s="2"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.5">
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C34" s="2"/>
@@ -826,11 +825,6 @@
       <c r="C35" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A25:D30">
-    <sortState ref="A26:D30">
-      <sortCondition ref="B25:B30"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -87,118 +87,118 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>电话：18031629866</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiga</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18933947315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18568128870</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-黄瀚迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18583503495</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-创-章斯佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：15656028601</t>
+  </si>
+  <si>
+    <t>QQ电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺大仙儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：13317736251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋逸笛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：19956093748</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨玉墨玉墨玉也</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：15161920510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>macaroni-fields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18207166169</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜雨声烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18509540243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：17607068413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日寻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18093557696</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊哈灵机一动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18258602038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一元二次方程组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假装在科大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>哞同学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18031629866</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shiga</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18933947315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18568128870</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18-黄瀚迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18583503495</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17-创-章斯佳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：15656028601</t>
-  </si>
-  <si>
-    <t>QQ电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贺大仙儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：13317736251</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秋逸笛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：19956093748</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墨玉墨玉墨玉也</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：15161920510</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>macaroni-fields</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18207166169</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜雨声烦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18509540243</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：17607068413</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日寻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18093557696</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啊哈灵机一动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18258602038</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假装在科大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一元二次方程组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:C33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -568,7 +568,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>0.26041666666666669</v>
@@ -590,35 +590,35 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>0.2673611111111111</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1">
         <v>0.27430555555555552</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.5">
@@ -629,18 +629,18 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1">
         <v>0.27777777777777779</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.5">
@@ -656,38 +656,38 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1">
         <v>0.28472222222222221</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1">
         <v>0.28819444444444448</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1">
         <v>0.25</v>
       </c>
       <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.5">
@@ -703,13 +703,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1">
         <v>0.28472222222222221</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.5">
@@ -725,46 +725,46 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1">
         <v>0.29166666666666669</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1">
         <v>0.29166666666666669</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1">
-        <v>0.28125</v>
+        <v>0.3125</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1">
         <v>0.3125</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.5">
@@ -791,13 +791,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1">
         <v>0.29166666666666669</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.5">
@@ -812,11 +812,11 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="E28" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="C30" s="2"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C33" s="2"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C32" s="2"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C34" s="2"/>

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$26:$C$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$24:$C$32</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -637,7 +637,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="1">
-        <v>0.27777777777777779</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -648,7 +648,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>0.28125</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -681,7 +681,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="1">
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -706,7 +706,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="1">
-        <v>0.28472222222222221</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -800,6 +800,9 @@
         <v>40</v>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C24" s="2"/>
+    </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="E25" s="1"/>
     </row>
@@ -807,16 +810,14 @@
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C27" s="2"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="E28" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="C32" s="2"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C30" s="2"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C34" s="2"/>

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$24:$C$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$24:$C$34</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -582,7 +582,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>0.27430555555555552</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -681,7 +681,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.28125</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -706,7 +706,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.28472222222222221</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -810,22 +810,25 @@
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="C27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="E28" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="C30" s="2"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C34" s="2"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.5">
+      <c r="C33" s="2"/>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C35" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="A27:C34">
+    <sortCondition ref="A27"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$24:$C$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$25:$C$35</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -541,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -582,7 +582,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>0.25694444444444448</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -593,7 +593,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.2951388888888889</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -626,7 +626,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -659,7 +659,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="1">
-        <v>0.28472222222222221</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -681,7 +681,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="1">
-        <v>0.28125</v>
+        <v>0.28472222222222221</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -706,7 +706,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="1">
-        <v>0.28472222222222221</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -750,7 +750,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="1">
-        <v>0.3125</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
@@ -821,9 +821,6 @@
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C33" s="2"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C35" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A27:C34">

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\MorningCall\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\anything\MorningCall\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$25:$C$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$24:$C$29</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -543,19 +543,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="23.09765625" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -577,7 +577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -588,7 +588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -599,7 +599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -610,7 +610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -621,7 +621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>17</v>
       </c>
@@ -632,7 +632,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -643,7 +643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -654,7 +654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -665,7 +665,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -676,7 +676,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -690,7 +690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -712,7 +712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -723,7 +723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -734,7 +734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -745,7 +745,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -756,7 +756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -767,7 +767,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -778,7 +778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -789,7 +789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -800,26 +800,29 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A27" s="3"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="2"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="2"/>
     </row>
   </sheetData>

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\anything\MorningCall\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\MorningCall\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$24:$C$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$25:$C$32</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>群中备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,13 +199,21 @@
   </si>
   <si>
     <t>哞同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孑孓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：15709542883</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -543,19 +551,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="4" max="4" width="23.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -577,7 +585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -588,7 +596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -599,7 +607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -610,7 +618,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -621,7 +629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>17</v>
       </c>
@@ -632,18 +640,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="1">
-        <v>0.2986111111111111</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -654,7 +662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -665,7 +673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -676,7 +684,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -690,7 +698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -701,18 +709,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -723,7 +731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -734,7 +742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -745,18 +753,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -767,7 +775,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -778,7 +786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -789,7 +797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -800,29 +808,36 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C28" s="2"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C29" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C33" s="2"/>
     </row>
   </sheetData>

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$25:$C$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$25:$C$30</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>群中备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,13 @@
   </si>
   <si>
     <t>电话：15709542883</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人小埋</t>
+  </si>
+  <si>
+    <t>电话：18630106120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -601,7 +608,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="1">
-        <v>0.2951388888888889</v>
+        <v>0.3125</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -689,7 +696,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="1">
-        <v>0.28472222222222221</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -758,7 +765,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="1">
-        <v>0.3125</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
@@ -813,14 +820,19 @@
         <v>44</v>
       </c>
       <c r="B23" s="1">
-        <v>0.3125</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="C24" s="2"/>
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="E25" s="1"/>
@@ -834,15 +846,18 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="E28" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="C30" s="2"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C33" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A27:C34">
-    <sortCondition ref="A27"/>
+  <sortState ref="A26:C31">
+    <sortCondition ref="A26"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$25:$C$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$25:$C$29</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -559,7 +559,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -663,7 +663,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>0.3263888888888889</v>
+        <v>0.3125</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -721,7 +721,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -765,7 +765,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
@@ -846,8 +846,8 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="C29" s="2"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C30" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="C32" s="2"/>

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -202,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>孑孓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电话：15709542883</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,6 +210,10 @@
   </si>
   <si>
     <t>电话：18630106120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释汝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -608,7 +608,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="1">
-        <v>0.3125</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -696,7 +696,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -721,7 +721,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.28472222222222221</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -765,7 +765,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="1">
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
@@ -817,21 +817,21 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1">
         <v>0.29166666666666669</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.5">
@@ -846,14 +846,8 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="E28" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="C30" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C33" s="2"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C31" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A26:C31">

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$25:$C$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$28:$C$35</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -556,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C35" sqref="A28:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -696,7 +696,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="1">
-        <v>0.27777777777777779</v>
+        <v>0.28472222222222221</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -846,8 +846,8 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="E28" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="C31" s="2"/>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.5">
+      <c r="C35" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A26:C31">

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$28:$C$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$26:$C$33</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -559,7 +559,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C35" sqref="A28:C35"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -630,7 +630,7 @@
         <v>37</v>
       </c>
       <c r="B6" s="1">
-        <v>0.27430555555555552</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -652,7 +652,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.28472222222222221</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -663,7 +663,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>0.3125</v>
+        <v>0.2951388888888889</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -721,7 +721,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="1">
-        <v>0.28472222222222221</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -765,7 +765,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
@@ -841,6 +841,7 @@
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C27" s="2"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.5">

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$26:$C$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$27:$C$32</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -91,129 +91,129 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>电话：18933947315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18568128870</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-黄瀚迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18583503495</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-创-章斯佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：15656028601</t>
+  </si>
+  <si>
+    <t>QQ电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺大仙儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：13317736251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋逸笛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：19956093748</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨玉墨玉墨玉也</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：15161920510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>macaroni-fields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18207166169</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜雨声烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18509540243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：17607068413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日寻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18093557696</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊哈灵机一动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：18258602038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一元二次方程组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假装在科大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哞同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：15709542883</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人小埋</t>
+  </si>
+  <si>
+    <t>电话：18630106120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释汝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>shiga</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18933947315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18568128870</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18-黄瀚迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18583503495</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17-创-章斯佳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：15656028601</t>
-  </si>
-  <si>
-    <t>QQ电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贺大仙儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：13317736251</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秋逸笛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：19956093748</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墨玉墨玉墨玉也</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：15161920510</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>macaroni-fields</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18207166169</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜雨声烦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18509540243</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：17607068413</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日寻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18093557696</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啊哈灵机一动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：18258602038</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一元二次方程组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假装在科大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哞同学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：15709542883</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人小埋</t>
-  </si>
-  <si>
-    <t>电话：18630106120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>释汝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -583,7 +583,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>0.26041666666666669</v>
@@ -597,7 +597,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -605,35 +605,35 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.5">
@@ -644,18 +644,18 @@
         <v>0.2638888888888889</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>0.28472222222222221</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.5">
@@ -671,38 +671,38 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1">
         <v>0.30208333333333331</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1">
         <v>0.28819444444444448</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1">
         <v>0.28472222222222221</v>
       </c>
       <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.5">
@@ -718,7 +718,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1">
         <v>0.29166666666666669</v>
@@ -740,51 +740,51 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1">
         <v>0.29166666666666669</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1">
         <v>0.29166666666666669</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1">
         <v>0.22916666666666666</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
         <v>0.3125</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1">
         <v>0.33333333333333331</v>
@@ -806,32 +806,32 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
         <v>0.29166666666666669</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1">
         <v>0.29166666666666669</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.5">

--- a/Morning Call EXCELL.xlsx
+++ b/Morning Call EXCELL.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$27:$C$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$26:$C$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -597,7 +597,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -608,7 +608,7 @@
         <v>47</v>
       </c>
       <c r="B4" s="1">
-        <v>0.26874999999999999</v>
+        <v>0.28125</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -841,7 +841,6 @@
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="C27" s="2"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.5">
